--- a/src/sample2.xlsx
+++ b/src/sample2.xlsx
@@ -2,41 +2,266 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1140" yWindow="120" windowWidth="15225" windowHeight="14640" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="test" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист1'!$A$9:$M$33</definedName>
+  </definedNames>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="00000000"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
+  <fonts count="14">
     <font>
-      <name val="Calibri"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <b val="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <sz val="10"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <color theme="0"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <color theme="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+      <color theme="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <charset val="204"/>
+      <family val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="204"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -46,13 +271,262 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="9" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -125,9 +599,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,39 +609,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -199,6 +673,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -233,9 +708,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -244,166 +720,142 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
@@ -411,9 +863,1184 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.75"/>
+  <cols>
+    <col width="6.85546875" customWidth="1" min="1" max="1"/>
+    <col width="11.140625" customWidth="1" min="2" max="2"/>
+    <col width="35.28515625" customWidth="1" style="37" min="3" max="3"/>
+    <col width="9.7109375" customWidth="1" min="4" max="4"/>
+    <col width="11.42578125" customWidth="1" min="5" max="5"/>
+    <col width="19.28515625" customWidth="1" min="6" max="6"/>
+    <col width="18.85546875" customWidth="1" min="7" max="7"/>
+    <col width="9.42578125" customWidth="1" min="8" max="8"/>
+    <col width="13" customWidth="1" style="37" min="9" max="9"/>
+    <col width="15.5703125" customWidth="1" min="10" max="10"/>
+    <col width="15.140625" customWidth="1" min="11" max="11"/>
+    <col width="8.7109375" customWidth="1" min="12" max="1028"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="54" customHeight="1">
+      <c r="A1" s="72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ФОРМА 1
+до додатку 3 до договору електропостачальника
+про надання послуг з розподілу (передачі) електричної енергії
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="84" t="inlineStr">
+        <is>
+          <t>Реєстр споживачів Постачальника   ТОВАРИСТВО З ОБМЕЖЕНОЮ ВІДПОВІДАЛЬНІСТЮ "Д.ТРЕЙДІНГ" (код за ЄДРПОУ 42751799),</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="84" t="inlineStr">
+        <is>
+          <t>яким забезпечується розподіл електричної енергії мережами</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="84" t="inlineStr">
+        <is>
+          <t>АТ "ДТЕК ОДЕСЬКІ ЕЛЕКТРОМЕРЕЖІ"  код ЄДРПОУ 00131713</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="85" t="inlineStr">
+        <is>
+          <t>на листопад  2023 року</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="86" t="n"/>
+    </row>
+    <row r="7" ht="55.5" customHeight="1">
+      <c r="A7" s="66" t="inlineStr">
+        <is>
+          <t>№ пп</t>
+        </is>
+      </c>
+      <c r="B7" s="65" t="inlineStr">
+        <is>
+          <t>Споживач</t>
+        </is>
+      </c>
+      <c r="C7" s="87" t="n"/>
+      <c r="D7" s="66" t="inlineStr">
+        <is>
+          <t>Договір про постачання електричної енергії споживача (Далі - Договір)</t>
+        </is>
+      </c>
+      <c r="E7" s="87" t="n"/>
+      <c r="F7" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Адреса </t>
+        </is>
+      </c>
+      <c r="G7" s="65" t="inlineStr">
+        <is>
+          <t>EIC код точки обліку</t>
+        </is>
+      </c>
+      <c r="H7" s="65" t="inlineStr">
+        <is>
+          <t>Група ("а"/"б")</t>
+        </is>
+      </c>
+      <c r="I7" s="65" t="inlineStr">
+        <is>
+          <t>Обсяг постачання елекричної енергії, кВт.г.</t>
+        </is>
+      </c>
+      <c r="J7" s="88" t="n"/>
+      <c r="K7" s="87" t="n"/>
+      <c r="L7" s="12" t="n"/>
+    </row>
+    <row r="8" ht="55.5" customHeight="1">
+      <c r="A8" s="89" t="n"/>
+      <c r="B8" s="65" t="inlineStr">
+        <is>
+          <t>ЄДРПОУ</t>
+        </is>
+      </c>
+      <c r="C8" s="65" t="inlineStr">
+        <is>
+          <t>Найменування</t>
+        </is>
+      </c>
+      <c r="D8" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Дата початку постачання електричної енергії </t>
+        </is>
+      </c>
+      <c r="E8" s="65" t="inlineStr">
+        <is>
+          <t>Термін дії Договору</t>
+        </is>
+      </c>
+      <c r="F8" s="89" t="n"/>
+      <c r="G8" s="89" t="n"/>
+      <c r="H8" s="89" t="n"/>
+      <c r="I8" s="65" t="inlineStr">
+        <is>
+          <t>Всього</t>
+        </is>
+      </c>
+      <c r="J8" s="65" t="inlineStr">
+        <is>
+          <t>1 клас напруги</t>
+        </is>
+      </c>
+      <c r="K8" s="65" t="inlineStr">
+        <is>
+          <t>2 клас напруги</t>
+        </is>
+      </c>
+      <c r="L8" s="12" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B9" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" s="14" t="n"/>
+      <c r="E9" s="14" t="n"/>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="I9" s="14" t="n">
+        <v>6</v>
+      </c>
+      <c r="J9" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" s="14" t="n">
+        <v>8</v>
+      </c>
+      <c r="L9" s="12" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="69" t="inlineStr">
+        <is>
+          <t>Споживачі, які здійснюють оплату послуг з розподілу Оператору системи</t>
+        </is>
+      </c>
+      <c r="B10" s="88" t="n"/>
+      <c r="C10" s="88" t="n"/>
+      <c r="D10" s="88" t="n"/>
+      <c r="E10" s="88" t="n"/>
+      <c r="F10" s="88" t="n"/>
+      <c r="G10" s="88" t="n"/>
+      <c r="H10" s="87" t="n"/>
+      <c r="I10" s="15" t="n"/>
+      <c r="J10" s="15" t="n"/>
+      <c r="K10" s="15" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="66" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="23" t="inlineStr">
+        <is>
+          <t>01186691</t>
+        </is>
+      </c>
+      <c r="C11" s="69" t="inlineStr">
+        <is>
+          <t>Одеська філія ПАТ "Укртелеком</t>
+        </is>
+      </c>
+      <c r="D11" s="21" t="n">
+        <v>43617</v>
+      </c>
+      <c r="E11" s="21" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F11" s="69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Додаток 1</t>
+        </is>
+      </c>
+      <c r="G11" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Додаток 1</t>
+        </is>
+      </c>
+      <c r="H11" s="22" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I11" s="6">
+        <f>SUM(J11:K11)</f>
+        <v/>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>64851</v>
+      </c>
+      <c r="L11" s="37" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="23" t="inlineStr">
+        <is>
+          <t>01186691</t>
+        </is>
+      </c>
+      <c r="C12" s="69" t="inlineStr">
+        <is>
+          <t>Одеська філія ПАТ "Укртелеком</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>43617</v>
+      </c>
+      <c r="E12" s="21" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F12" s="69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Додаток 1</t>
+        </is>
+      </c>
+      <c r="G12" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Додаток 1</t>
+        </is>
+      </c>
+      <c r="H12" s="66" t="inlineStr">
+        <is>
+          <t>б</t>
+        </is>
+      </c>
+      <c r="I12" s="6">
+        <f>SUM(J12:K12)</f>
+        <v/>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>415165</v>
+      </c>
+      <c r="L12" s="37" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1">
+      <c r="A13" s="66" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11" t="inlineStr">
+        <is>
+          <t>00131713</t>
+        </is>
+      </c>
+      <c r="C13" s="69" t="inlineStr">
+        <is>
+          <t>АТ "ДТЕК ОДЕСЬКІ ЕЛЕКТРОМЕРЕЖІ"</t>
+        </is>
+      </c>
+      <c r="D13" s="51" t="n">
+        <v>44562</v>
+      </c>
+      <c r="E13" s="51" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F13" s="69" t="inlineStr">
+        <is>
+          <t>Додаток 2</t>
+        </is>
+      </c>
+      <c r="G13" s="15" t="inlineStr">
+        <is>
+          <t>Додаток 2</t>
+        </is>
+      </c>
+      <c r="H13" s="66" t="inlineStr">
+        <is>
+          <t>б</t>
+        </is>
+      </c>
+      <c r="I13" s="6">
+        <f>SUM(J13:K13)</f>
+        <v/>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>1001000</v>
+      </c>
+      <c r="L13" s="37" t="n"/>
+    </row>
+    <row r="14" ht="56.1" customHeight="1">
+      <c r="A14" s="64" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" s="64" t="n">
+        <v>34980457</v>
+      </c>
+      <c r="C14" s="69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> ТОВ «НОВІ БІЗНЕС ПОГЛЯДИ»</t>
+        </is>
+      </c>
+      <c r="D14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 01.08.2019</t>
+        </is>
+      </c>
+      <c r="E14" s="70" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F14" s="71" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Одеська обл., Лиманський р-н, с. Фонтанка, БФ ТВОК «Рів’єра» </t>
+        </is>
+      </c>
+      <c r="G14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62Z5117513479075, 
+62Z7535955429737,
+62Z9936652638361.
+</t>
+        </is>
+      </c>
+      <c r="H14" s="35" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I14" s="6">
+        <f>SUM(J14:K14)</f>
+        <v/>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>750000</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="37" t="n"/>
+    </row>
+    <row r="15" ht="47.45" customHeight="1">
+      <c r="A15" s="89" t="n"/>
+      <c r="B15" s="89" t="n"/>
+      <c r="C15" s="89" t="n"/>
+      <c r="D15" s="89" t="n"/>
+      <c r="E15" s="89" t="n"/>
+      <c r="F15" s="89" t="n"/>
+      <c r="G15" s="89" t="n"/>
+      <c r="H15" s="35" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I15" s="6">
+        <f>SUM(J15:K15)</f>
+        <v/>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>75000</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" s="37" t="n"/>
+    </row>
+    <row r="16" ht="36" customFormat="1" customHeight="1" s="37">
+      <c r="A16" s="66" t="n">
+        <v>5</v>
+      </c>
+      <c r="B16" s="17" t="n">
+        <v>37090215</v>
+      </c>
+      <c r="C16" s="69" t="inlineStr">
+        <is>
+          <t>ТОВ "ЛОГІСТИК ЮНІОН"</t>
+        </is>
+      </c>
+      <c r="D16" s="21" t="n">
+        <v>44743</v>
+      </c>
+      <c r="E16" s="21" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F16" s="69" t="n"/>
+      <c r="G16" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62Z5193761927679
+62Z3397912174048
+</t>
+        </is>
+      </c>
+      <c r="H16" s="26" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I16" s="6">
+        <f>SUM(J16:K16)</f>
+        <v/>
+      </c>
+      <c r="J16" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6" t="n">
+        <v>159600</v>
+      </c>
+    </row>
+    <row r="17" ht="24" customHeight="1">
+      <c r="A17" s="66" t="n">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="n">
+        <v>30487219</v>
+      </c>
+      <c r="C17" s="54" t="inlineStr">
+        <is>
+          <t>ТОВ АТБ-Маркет (Одесский регион)</t>
+        </is>
+      </c>
+      <c r="D17" s="25" t="n">
+        <v>44105</v>
+      </c>
+      <c r="E17" s="21" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F17" s="69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 65000, м.Одеса, вул.Балківська, 22а</t>
+        </is>
+      </c>
+      <c r="G17" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Додаток 3</t>
+        </is>
+      </c>
+      <c r="H17" s="26" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I17" s="6">
+        <f>SUM(J17:K17)</f>
+        <v/>
+      </c>
+      <c r="J17" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18" t="n">
+        <v>395968</v>
+      </c>
+      <c r="L17" s="37" t="n"/>
+    </row>
+    <row r="18" ht="24" customHeight="1">
+      <c r="A18" s="66" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" s="28" t="n">
+        <v>30487219</v>
+      </c>
+      <c r="C18" s="55" t="inlineStr">
+        <is>
+          <t>ТОВ АТБ-Маркет (Одесский регион)</t>
+        </is>
+      </c>
+      <c r="D18" s="29" t="n">
+        <v>44105</v>
+      </c>
+      <c r="E18" s="30" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F18" s="56" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 65000, м.Одеса, вул.Балківська, 22а</t>
+        </is>
+      </c>
+      <c r="G18" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Додаток 3</t>
+        </is>
+      </c>
+      <c r="H18" s="31" t="inlineStr">
+        <is>
+          <t>б</t>
+        </is>
+      </c>
+      <c r="I18" s="38">
+        <f>SUM(J18:K18)</f>
+        <v/>
+      </c>
+      <c r="J18" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18" t="n">
+        <v>855026</v>
+      </c>
+      <c r="L18" s="37" t="n"/>
+    </row>
+    <row r="19" ht="72" customHeight="1">
+      <c r="A19" s="66" t="n">
+        <v>8</v>
+      </c>
+      <c r="B19" s="57" t="n">
+        <v>32490244</v>
+      </c>
+      <c r="C19" s="58" t="inlineStr">
+        <is>
+          <t>ТОВ "Епіцентр К" (Авангард)</t>
+        </is>
+      </c>
+      <c r="D19" s="59" t="n">
+        <v>44927</v>
+      </c>
+      <c r="E19" s="30" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F19" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 65033, Одеська обл.,
+Овідіопольський р-н, сщ/рада Авангардівська,
+7-км Овідіопольської дороги, б.1</t>
+        </is>
+      </c>
+      <c r="G19" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62Z9386128284949
+62Z9392241257810</t>
+        </is>
+      </c>
+      <c r="H19" s="26" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I19" s="38">
+        <f>SUM(J19:K19)</f>
+        <v/>
+      </c>
+      <c r="J19" s="27" t="n"/>
+      <c r="K19" s="18" t="n">
+        <v>200000</v>
+      </c>
+      <c r="L19" s="37" t="n"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="B20" s="57" t="n">
+        <v>32490244</v>
+      </c>
+      <c r="C20" s="58" t="inlineStr">
+        <is>
+          <t>ТОВ "Епіцентр К" (Лиманка)</t>
+        </is>
+      </c>
+      <c r="D20" s="59" t="n">
+        <v>44927</v>
+      </c>
+      <c r="E20" s="30" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F20" s="60" t="inlineStr">
+        <is>
+          <t>65122, Одеська обл.,
+Овідіопольський р-н, с. Лиманка, 
+пр.-т Жукова маршала, ж/м «Дружний», б. 99</t>
+        </is>
+      </c>
+      <c r="G20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 62Z1239080184249
+62Z1483293228677</t>
+        </is>
+      </c>
+      <c r="H20" s="26" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I20" s="38">
+        <f>SUM(J20:K20)</f>
+        <v/>
+      </c>
+      <c r="J20" s="27" t="n"/>
+      <c r="K20" s="18" t="n">
+        <v>270000</v>
+      </c>
+      <c r="L20" s="37" t="n"/>
+    </row>
+    <row r="21" ht="48" customHeight="1">
+      <c r="A21" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="B21" s="57" t="n">
+        <v>32490244</v>
+      </c>
+      <c r="C21" s="58" t="inlineStr">
+        <is>
+          <t>ТОВ "Епіцентр К" (Ілічанка)</t>
+        </is>
+      </c>
+      <c r="D21" s="59" t="n">
+        <v>44927</v>
+      </c>
+      <c r="E21" s="30" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F21" s="60" t="inlineStr">
+        <is>
+          <t>Одеська обл., Лиманський р-н, с. Ілічанка. вул. Паустовського, 14</t>
+        </is>
+      </c>
+      <c r="G21" s="61" t="inlineStr">
+        <is>
+          <t>62Z1486135174036
+62Z7641090139853</t>
+        </is>
+      </c>
+      <c r="H21" s="26" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I21" s="38">
+        <f>SUM(J21:K21)</f>
+        <v/>
+      </c>
+      <c r="J21" s="27" t="n"/>
+      <c r="K21" s="18" t="n">
+        <v>180000</v>
+      </c>
+      <c r="L21" s="37" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1">
+      <c r="A22" s="90" t="inlineStr">
+        <is>
+          <t>Всього по споживачам, які здійснюють оплату послуг розподілу Оператору системи</t>
+        </is>
+      </c>
+      <c r="B22" s="88" t="n"/>
+      <c r="C22" s="88" t="n"/>
+      <c r="D22" s="88" t="n"/>
+      <c r="E22" s="88" t="n"/>
+      <c r="F22" s="88" t="n"/>
+      <c r="G22" s="88" t="n"/>
+      <c r="H22" s="87" t="n"/>
+      <c r="I22" s="16">
+        <f>SUM(I11:I21)</f>
+        <v/>
+      </c>
+      <c r="J22" s="16">
+        <f>SUM(J11:J21)</f>
+        <v/>
+      </c>
+      <c r="K22" s="16">
+        <f>SUM(K11:K21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="12.6" customHeight="1">
+      <c r="A23" s="69" t="inlineStr">
+        <is>
+          <t>Споживачі, які здійснюють оплату послуг з розподілу через Постачальника</t>
+        </is>
+      </c>
+      <c r="B23" s="88" t="n"/>
+      <c r="C23" s="88" t="n"/>
+      <c r="D23" s="88" t="n"/>
+      <c r="E23" s="88" t="n"/>
+      <c r="F23" s="88" t="n"/>
+      <c r="G23" s="88" t="n"/>
+      <c r="H23" s="87" t="n"/>
+      <c r="I23" s="15" t="n"/>
+      <c r="J23" s="15" t="n"/>
+      <c r="K23" s="15" t="n"/>
+    </row>
+    <row r="24" ht="72" customHeight="1">
+      <c r="A24" s="64" t="n">
+        <v>1</v>
+      </c>
+      <c r="B24" s="64" t="n">
+        <v>33268860</v>
+      </c>
+      <c r="C24" s="15" t="inlineStr">
+        <is>
+          <t>ТОВ "ДЕЛЬТА ВІЛМАР УКРАЇНА"</t>
+        </is>
+      </c>
+      <c r="D24" s="70" t="n">
+        <v>44876</v>
+      </c>
+      <c r="E24" s="30" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F24" s="33" t="n"/>
+      <c r="G24" s="33" t="inlineStr">
+        <is>
+          <t>62Z2584219769967  62Z1972845592154  62Z2666114594516  62Z1105750283652  62Z6212625658330  62Z1360680704244</t>
+        </is>
+      </c>
+      <c r="H24" s="26" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I24" s="38">
+        <f>SUM(J24:K24)</f>
+        <v/>
+      </c>
+      <c r="J24" s="36" t="n">
+        <v>4200000</v>
+      </c>
+      <c r="K24" s="36" t="n"/>
+    </row>
+    <row r="25" ht="72" customHeight="1">
+      <c r="A25" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" s="64" t="n">
+        <v>33268860</v>
+      </c>
+      <c r="C25" s="15" t="inlineStr">
+        <is>
+          <t>ТОВ "ДЕЛЬТА ВІЛМАР УКРАЇНА"</t>
+        </is>
+      </c>
+      <c r="D25" s="70" t="n">
+        <v>44876</v>
+      </c>
+      <c r="E25" s="30" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F25" s="33" t="n"/>
+      <c r="G25" s="33" t="inlineStr">
+        <is>
+          <t>62Z2584219769967  62Z1972845592154  62Z2666114594516  62Z1105750283652  62Z6212625658330  62Z1360680704244</t>
+        </is>
+      </c>
+      <c r="H25" s="26" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I25" s="38">
+        <f>SUM(J25:K25)</f>
+        <v/>
+      </c>
+      <c r="J25" s="36" t="n"/>
+      <c r="K25" s="36" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="26" ht="324" customHeight="1">
+      <c r="A26" s="62" t="n">
+        <v>3</v>
+      </c>
+      <c r="B26" s="24" t="n">
+        <v>19199961</v>
+      </c>
+      <c r="C26" s="69" t="inlineStr">
+        <is>
+          <t>ПрАТ "Фарлеп-Інвест"</t>
+        </is>
+      </c>
+      <c r="D26" s="21" t="n">
+        <v>43922</v>
+      </c>
+      <c r="E26" s="21" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F26" s="69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03110, м.Київ, вул. Солом’янська,3</t>
+        </is>
+      </c>
+      <c r="G26" s="15" t="inlineStr">
+        <is>
+          <t>62Z7139502295611 62Z770893130386O  62Z8637062618689  62Z071938041322J  62Z9836204157130  62Z6232688635432  62Z1450873888932   62Z2254602737027  62Z418724604381B  62Z9551589407707  62Z8437711232233  62Z9802512485666  62Z3867435539123  62Z3725919539449  62Z9048987462737  62Z6992311956787  62Z3052082215883  62Z313786294272P  62Z4674818666293  62Z6860546403712  62Z1713494259755  62Z1507129450198  62Z4936280490129  62Z1993438122458  62Z374059238551R  62Z5152690995370  62Z3521586466435</t>
+        </is>
+      </c>
+      <c r="H26" s="22" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I26" s="6">
+        <f>SUM(J26:K26)</f>
+        <v/>
+      </c>
+      <c r="J26" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" ht="324" customHeight="1">
+      <c r="A27" s="62" t="n">
+        <v>4</v>
+      </c>
+      <c r="B27" s="24" t="n">
+        <v>19199961</v>
+      </c>
+      <c r="C27" s="69" t="inlineStr">
+        <is>
+          <t>ПрАТ "Фарлеп-Інвест"</t>
+        </is>
+      </c>
+      <c r="D27" s="21" t="n">
+        <v>43922</v>
+      </c>
+      <c r="E27" s="21" t="n">
+        <v>45291</v>
+      </c>
+      <c r="F27" s="69" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 03110, м.Київ, вул. Солом’янська,3</t>
+        </is>
+      </c>
+      <c r="G27" s="15" t="inlineStr">
+        <is>
+          <t>62Z7139502295611 62Z770893130386O  62Z8637062618689  62Z071938041322J  62Z9836204157130  62Z6232688635432  62Z1450873888932   62Z2254602737027  62Z418724604381B  62Z9551589407707  62Z8437711232233  62Z9802512485666  62Z3867435539123  62Z3725919539449  62Z9048987462737  62Z6992311956787  62Z3052082215883  62Z313786294272P  62Z4674818666293  62Z6860546403712  62Z1713494259755  62Z1507129450198  62Z4936280490129  62Z1993438122458  62Z374059238551R  62Z5152690995370  62Z3521586466435</t>
+        </is>
+      </c>
+      <c r="H27" s="66" t="inlineStr">
+        <is>
+          <t>б</t>
+        </is>
+      </c>
+      <c r="I27" s="6">
+        <f>SUM(J27:K27)</f>
+        <v/>
+      </c>
+      <c r="J27" s="6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6" t="n">
+        <v>50866</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="91" t="inlineStr">
+        <is>
+          <t>Всього по споживачам, які здійснюють оплату послуг розподілу через Постачальника</t>
+        </is>
+      </c>
+      <c r="B28" s="88" t="n"/>
+      <c r="C28" s="88" t="n"/>
+      <c r="D28" s="88" t="n"/>
+      <c r="E28" s="88" t="n"/>
+      <c r="F28" s="88" t="n"/>
+      <c r="G28" s="88" t="n"/>
+      <c r="H28" s="87" t="n"/>
+      <c r="I28" s="39">
+        <f>SUM(I24:I27)</f>
+        <v/>
+      </c>
+      <c r="J28" s="40">
+        <f>SUM(J24:J27)</f>
+        <v/>
+      </c>
+      <c r="K28" s="40">
+        <f>SUM(K24:K27)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" customFormat="1" s="3">
+      <c r="A29" s="83" t="inlineStr">
+        <is>
+          <t>Всього по постачальнику</t>
+        </is>
+      </c>
+      <c r="B29" s="88" t="n"/>
+      <c r="C29" s="88" t="n"/>
+      <c r="D29" s="88" t="n"/>
+      <c r="E29" s="88" t="n"/>
+      <c r="F29" s="88" t="n"/>
+      <c r="G29" s="88" t="n"/>
+      <c r="H29" s="87" t="n"/>
+      <c r="I29" s="16">
+        <f>I22+I28</f>
+        <v/>
+      </c>
+      <c r="J29" s="41">
+        <f>J22+J28</f>
+        <v/>
+      </c>
+      <c r="K29" s="41">
+        <f>K22+K28</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" ht="15" customFormat="1" customHeight="1" s="3">
+      <c r="A30" s="63" t="inlineStr">
+        <is>
+          <t>в т.ч. ВСЬОГО по групі "а"</t>
+        </is>
+      </c>
+      <c r="B30" s="88" t="n"/>
+      <c r="C30" s="88" t="n"/>
+      <c r="D30" s="88" t="n"/>
+      <c r="E30" s="88" t="n"/>
+      <c r="F30" s="88" t="n"/>
+      <c r="G30" s="87" t="n"/>
+      <c r="H30" s="48" t="inlineStr">
+        <is>
+          <t>а</t>
+        </is>
+      </c>
+      <c r="I30" s="6">
+        <f>I11+I14+I15+I16+I17+I24+I25+I19+I20+I21+I26</f>
+        <v/>
+      </c>
+      <c r="J30" s="6">
+        <f>J14+J24+J15</f>
+        <v/>
+      </c>
+      <c r="K30" s="6">
+        <f>K11+K14+K16+K17+K25+K15+K26</f>
+        <v/>
+      </c>
+      <c r="L30" s="19" t="n"/>
+      <c r="M30" s="19" t="n"/>
+    </row>
+    <row r="31" ht="16.5" customHeight="1">
+      <c r="A31" s="63" t="inlineStr">
+        <is>
+          <t>в т.ч. ВСЬОГО по групі "б"</t>
+        </is>
+      </c>
+      <c r="B31" s="88" t="n"/>
+      <c r="C31" s="88" t="n"/>
+      <c r="D31" s="88" t="n"/>
+      <c r="E31" s="88" t="n"/>
+      <c r="F31" s="88" t="n"/>
+      <c r="G31" s="87" t="n"/>
+      <c r="H31" s="7" t="inlineStr">
+        <is>
+          <t>б</t>
+        </is>
+      </c>
+      <c r="I31" s="6">
+        <f>I12+I13+I18+I27</f>
+        <v/>
+      </c>
+      <c r="J31" s="6">
+        <f>J18+J13+J12</f>
+        <v/>
+      </c>
+      <c r="K31" s="6">
+        <f>K12+K13+K18+K27</f>
+        <v/>
+      </c>
+      <c r="L31" s="19" t="n"/>
+      <c r="M31" s="19" t="n"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c r="A32" s="8" t="n"/>
+      <c r="B32" s="8" t="n"/>
+      <c r="C32" s="49" t="n"/>
+      <c r="D32" s="8" t="n"/>
+      <c r="E32" s="8" t="n"/>
+      <c r="F32" s="8" t="n"/>
+      <c r="G32" s="8" t="n"/>
+      <c r="H32" s="9" t="n"/>
+      <c r="I32" s="10" t="n"/>
+      <c r="J32" s="10" t="n"/>
+      <c r="K32" s="10" t="n"/>
+      <c r="L32" s="19" t="n"/>
+      <c r="M32" s="19" t="n"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Постачальник:</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="n"/>
+      <c r="C33" s="50" t="n"/>
+      <c r="D33" s="2" t="n"/>
+      <c r="E33" s="2" t="n"/>
+      <c r="F33" s="2" t="n"/>
+      <c r="G33" s="2" t="n"/>
+      <c r="H33" s="2" t="n"/>
+      <c r="I33" s="42" t="inlineStr">
+        <is>
+          <t>Представник за довіреністю</t>
+        </is>
+      </c>
+      <c r="J33" s="43" t="n"/>
+      <c r="K33" s="1" t="n"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="2" t="n"/>
+      <c r="C34" s="50" t="n"/>
+      <c r="D34" s="2" t="n"/>
+      <c r="E34" s="2" t="n"/>
+      <c r="F34" s="2" t="n"/>
+      <c r="G34" s="2" t="n"/>
+      <c r="H34" s="2" t="n"/>
+      <c r="I34" s="42" t="n"/>
+      <c r="J34" s="43" t="n"/>
+      <c r="K34" s="1" t="n"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="n"/>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="46" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+      <c r="H35" s="1" t="n"/>
+      <c r="I35" s="44" t="n"/>
+      <c r="J35" s="52" t="inlineStr">
+        <is>
+          <t>Сухін О.Л.</t>
+        </is>
+      </c>
+      <c r="K35" s="1" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>М.П.</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="46" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+      <c r="H36" s="1" t="n"/>
+      <c r="I36" s="45" t="inlineStr">
+        <is>
+          <t>(підпис)</t>
+        </is>
+      </c>
+      <c r="J36" s="1" t="n"/>
+      <c r="K36" s="1" t="n"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Оператор системи:</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="n"/>
+      <c r="C38" s="50" t="n"/>
+      <c r="D38" s="2" t="n"/>
+      <c r="E38" s="2" t="n"/>
+      <c r="F38" s="2" t="n"/>
+      <c r="G38" s="2" t="n"/>
+      <c r="H38" s="2" t="n"/>
+      <c r="I38" s="46" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="1" t="n"/>
+      <c r="C39" s="46" t="n"/>
+      <c r="D39" s="1" t="n"/>
+      <c r="E39" s="1" t="n"/>
+      <c r="F39" s="1" t="n"/>
+      <c r="G39" s="1" t="n"/>
+      <c r="H39" s="1" t="n"/>
+      <c r="I39" s="47" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>М.П.</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="46" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
+      <c r="H40" s="1" t="n"/>
+      <c r="I40" s="45" t="inlineStr">
+        <is>
+          <t>(підпис)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A9:M33"/>
+  <mergeCells count="27">
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A23:H23"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A10:H10"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="E14:E15"/>
+  </mergeCells>
+  <pageMargins left="0.905555555555556" right="0.315277777777778" top="0.747916666666667" bottom="0.747916666666667" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="56" fitToHeight="0" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:A3"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,9 +2048,82 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>42</v>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B1" s="92" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C1" t="n">
+        <v>13</v>
+      </c>
+      <c r="D1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F1" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>АТ «ДТЕК ДНІПРОВСЬКІ ЕЛЕКТРОМЕРЕЖІ»</t>
+        </is>
+      </c>
+      <c r="I1" s="93" t="n">
+        <v>45281.73317808739</v>
+      </c>
+      <c r="K1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B2" s="92" t="n">
+        <v>45139</v>
+      </c>
+      <c r="C2" t="n">
+        <v>133</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>АТ «ДТЕК ДНІПРОВСЬКІ ЕЛЕКТРОМЕРЕЖІ»</t>
+        </is>
+      </c>
+      <c r="I2" s="93" t="n">
+        <v>45281.73914053676</v>
+      </c>
+      <c r="K2" t="n">
+        <v>12</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
